--- a/src/assests/developers.xlsx
+++ b/src/assests/developers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef5fac3b320ebc87/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukul\IdeaJProjects\tec\src\assests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{3300DA2C-39D0-4946-B36E-0A02020737CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC55080E-C0AF-444D-BB70-047DDDFF0B19}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B330F91-8E6F-4772-818D-166BE95E5732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3429B451-29EB-4CC3-8052-5B7C38213FB4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3429B451-29EB-4CC3-8052-5B7C38213FB4}"/>
   </bookViews>
   <sheets>
     <sheet name="DD Submission" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
   <si>
     <t>Advanced Android Application Development for the Digital Empowerment of MSMEs</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>MUKUL KUMAR SAHU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electronics and instrumentation </t>
   </si>
   <si>
     <t xml:space="preserve">NIHAL VERMA </t>
@@ -538,9 +535,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -578,7 +575,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -684,7 +681,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -826,7 +823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -840,24 +837,24 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="2" width="31.59765625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.8984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.296875" customWidth="1"/>
-    <col min="8" max="10" width="18.8984375" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="10" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -866,7 +863,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -879,7 +876,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -1179,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>12</v>
@@ -1191,7 +1188,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="8">
         <v>9565976783</v>
@@ -1212,7 +1209,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
@@ -1231,7 +1228,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="8">
         <v>9318475749</v>
@@ -1252,7 +1249,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="8">
         <v>9027418265</v>
@@ -1273,7 +1270,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="8">
         <v>6395066298</v>
@@ -1282,7 +1279,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>27</v>
@@ -1294,7 +1291,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="8">
         <v>9305691881</v>
@@ -1303,7 +1300,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>25</v>
@@ -1315,7 +1312,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="8">
         <v>6394633563</v>
@@ -1324,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>12</v>
@@ -1336,7 +1333,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="8">
         <v>9720847098</v>
@@ -1345,7 +1342,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>25</v>
@@ -1357,7 +1354,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="8">
         <v>6394827261</v>
@@ -1378,7 +1375,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="8">
         <v>7084109832</v>
@@ -1387,7 +1384,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>12</v>
@@ -1399,7 +1396,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="8">
         <v>9919085351</v>
@@ -1420,7 +1417,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="8">
         <v>6307778096</v>
@@ -1429,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>12</v>
@@ -1441,7 +1438,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="8">
         <v>9569849269</v>
